--- a/results/I3_N5_M2_T15_C100_DepCentral_s4_P3_res.xlsx
+++ b/results/I3_N5_M2_T15_C100_DepCentral_s4_P3_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1853.131386707104</v>
+        <v>1096.161735616771</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.00800013542175293</v>
+        <v>0.001999855041503906</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>23.42188413403032</v>
+        <v>22.73074255039767</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.380784773767238</v>
+        <v>6.333839975440975</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.350287346831242</v>
+        <v>5.764833041814827</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1526.700000000009</v>
+        <v>696</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>306.04</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -791,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -813,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>12.18397443193427</v>
       </c>
     </row>
     <row r="4">
@@ -915,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9.235166958185172</v>
+        <v>6.841313564153605</v>
       </c>
     </row>
     <row r="5">
@@ -923,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -931,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7.619215226232761</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1004,7 +1004,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1018,7 +1018,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1032,7 +1032,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1046,7 +1046,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1060,7 +1060,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1071,10 +1071,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1085,10 +1085,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -1099,10 +1099,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
@@ -1113,10 +1113,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
@@ -1127,10 +1127,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
@@ -1238,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>163.8399999999998</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8">
@@ -1249,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>163.6949999999998</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9">
@@ -1260,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>161.6799999999998</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10">
@@ -1271,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>160.4149999999998</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11">
@@ -1282,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>151.6049999999998</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
@@ -1293,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>184.05</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13">
@@ -1304,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>190.0900000000015</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14">
@@ -1315,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>197.7250000000014</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15">
@@ -1326,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>200.3650000000015</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16">
@@ -1337,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>189.8850000000014</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17">
@@ -1348,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>48.07000000000072</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18">
@@ -1359,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>46.66000000000072</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19">
@@ -1370,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>49.43500000000073</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20">
@@ -1381,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>46.91500000000073</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21">
@@ -1392,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>42.86500000000069</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22">
@@ -1403,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>107.5400000000008</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23">
@@ -1414,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>114.1650000000008</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24">
@@ -1425,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>108.45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25">
@@ -1436,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>113.8</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26">
@@ -1447,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>111.3550000000008</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27">
@@ -1458,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>59.89499999999971</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
@@ -1469,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>63.81999999999971</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29">
@@ -1480,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>63.17499999999971</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30">
@@ -1491,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>62.6849999999997</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31">
@@ -1502,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>61.9</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32">
@@ -1513,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>163.8399999999998</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33">
@@ -1524,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>163.6949999999998</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34">
@@ -1535,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>161.6799999999998</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35">
@@ -1546,7 +1546,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>160.4149999999998</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36">
@@ -1557,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>151.6049999999998</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37">
@@ -1568,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>184.05</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38">
@@ -1579,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>190.0900000000015</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39">
@@ -1590,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>197.7250000000014</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40">
@@ -1601,7 +1601,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>200.3650000000015</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41">
@@ -1612,7 +1612,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>189.8850000000014</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1659,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>63.8399999999998</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1670,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>63.69499999999977</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -1681,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>61.67999999999978</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
@@ -1692,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>60.41499999999979</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
@@ -1703,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>51.60499999999979</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
@@ -1714,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>84.05</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8">
@@ -1725,7 +1725,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>90.09000000000145</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9">
@@ -1736,7 +1736,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>97.72500000000144</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
@@ -1747,7 +1747,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>100.3650000000015</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11">
@@ -1758,7 +1758,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>89.88500000000141</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1805,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>4.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1816,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>5.635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1827,7 +1827,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>6.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1838,7 +1838,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>6.775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1849,7 +1849,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>6.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1860,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1871,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>7.045</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1882,7 +1882,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>5.36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1893,7 +1893,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>6.91</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1904,7 +1904,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>6.74</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1915,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>7.925000000000001</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
@@ -1926,7 +1926,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>11.74</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -1937,7 +1937,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>7.57</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -1948,7 +1948,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>6.945</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1959,7 +1959,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>13.115</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
@@ -1970,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>3.005</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -1981,7 +1981,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>2.81</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1992,7 +1992,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>3.645</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -2003,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>6.325</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -2014,7 +2014,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>5.575</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -2025,7 +2025,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>2.59</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -2036,7 +2036,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>3.945</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -2047,7 +2047,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>7.33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -2058,7 +2058,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>6.375</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2069,7 +2069,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>4.55</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2220,7 +2220,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -2231,7 +2231,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" t="n">
         <v>2</v>
@@ -2242,7 +2242,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" t="n">
         <v>3</v>
@@ -2253,7 +2253,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" t="n">
         <v>4</v>
@@ -2264,7 +2264,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" t="n">
         <v>5</v>
